--- a/excel/js.xlsx
+++ b/excel/js.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\yotaro\与太郎の備忘録\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\yotaro\与太郎の備忘録\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E640A0C-EB71-45C0-B2D4-A608328516D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" xr2:uid="{F98FBFEA-D3DD-4206-B3D9-31307632115B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545"/>
   </bookViews>
   <sheets>
     <sheet name="prism.jsについて" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>サイトURL</t>
     <phoneticPr fontId="1"/>
@@ -49,13 +48,420 @@
     <t>wordpressでコードを載せる時に色分けするものをシンタックスハイライターと言う</t>
   </si>
   <si>
-    <t>シンタックスハイライターの中で軽量で使いやすいものにprism.jsと言うものがある</t>
+    <t>SyntaxHighlighterEvoltednadoなどが有名だが容量が多く重いので、ページ表示速度に影響がある</t>
+    <rPh sb="31" eb="33">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>数あるシンタックスハイライターの中でも軽量で使いやすいものに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prism.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と言うものがある</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンタックスハイライターとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”シンタックスハイライト (英: syntax highlighting, 構文強調) とは、テキストエディタの機能であり、テキスト中の一部分をその分類ごとに異なる色やフォントで表示するものである。シンタックスカラーリング (syntax coloring) とも。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bywikipedia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまりシンタックスハイライターとはブログなどでコーディング風の画面を表示出来るもの</t>
+    <rPh sb="29" eb="30">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンタックスハイライターの種類</t>
+    <rPh sb="13" eb="15">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンタックスハイライターで有名なものに</t>
+    <rPh sb="13" eb="15">
+      <t>ユウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SyntaxHighlighterEvoltednado</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Crayon Syntax highlighter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>などがあるが機能が限られていたり、多機能なものは重い</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>タキノウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽量かつ多機能なものにprism.jsと言うものがある</t>
+    <rPh sb="0" eb="2">
+      <t>ケイリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>タキノウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prism.jsの使い方</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prism.jsは導入から使用まで簡単</t>
+    <rPh sb="9" eb="11">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．公式サイトで内容(カラーやプラグインなど)を選んでjsとcssを落とす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．自分のサイトでjsとcssを読み込む</t>
+    <rPh sb="2" eb="4">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．表示させたい箇所に記述</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式サイト</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上の「DOWNLOAD」をclick</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目は5つだが、この内選択する項目は4つ(1つはcoreファイルなので必要)</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Themes(カラーテーマ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Core(必要ファイル)</t>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Compression level:(圧縮度)</t>
+    <rPh sb="20" eb="22">
+      <t>アッシュク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Languages(使用言語、html、cssなど)</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Plugins(+αのプラグイン、行番号表示など)</t>
+    <rPh sb="18" eb="21">
+      <t>ギョウバンゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親切なことに各テーマからプラグインまでのファイルサイズが書かれていて、現在選択しているファイルのTotalとjs,cssの内訳も分かる</t>
+    <rPh sb="0" eb="2">
+      <t>シンセツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ウチワケ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使いたい内容が選べたら下部の「DOWNLOAD JS」と「DOWNLOAD CSS」をclick</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込み</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちなみに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度落としたファイルをもう一度落とす場合(言語やプラグインを追加したい時)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すでに自分が持っているプラグインなどの内容を忘れてしまっても、jsかcssファイルの冒頭に書かれているurlへ飛ぶと、その項目が選択されている状態でページが表示されるので便利</t>
+    <rPh sb="45" eb="46">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ベンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本当に親切</t>
+    <rPh sb="0" eb="2">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通のファイルと同じように&lt;head&gt;&lt;/head&gt;内に「prism.js」と「prism.css」を読み込ませるだけ</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単！</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記述方法</t>
+    <rPh sb="0" eb="2">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prism.jsは導入から表示までが比較的簡単</t>
+    <rPh sb="9" eb="11">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ヒカクテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -134,6 +540,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,53 +859,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0D1A62-12AA-49CF-A197-751F57FD9316}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="C39" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="C46" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{AF34D583-FE01-47DD-98DE-468837968617}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/js.xlsx
+++ b/excel/js.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
   <si>
     <t>サイトURL</t>
     <phoneticPr fontId="1"/>
@@ -457,12 +457,973 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Languagesについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このサイトで使用しているものは</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>markup</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>clike</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t>markdown</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>scss</t>
+  </si>
+  <si>
+    <t>pug</t>
+  </si>
+  <si>
+    <t>Pluginsについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Line highlight</t>
+  </si>
+  <si>
+    <t>指定行をハイライト</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Line Numbers</t>
+  </si>
+  <si>
+    <t>行番号を付ける</t>
+    <rPh sb="0" eb="3">
+      <t>ギョウバンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Show Invisibles</t>
+  </si>
+  <si>
+    <t>タブや改行など不可視の文字を可視化する</t>
+    <rPh sb="3" eb="5">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>フカシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カシカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Autolinker</t>
+  </si>
+  <si>
+    <t>コード内のURLやメールアドレスなどをクリック出来るリンクに変換する</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント内のテキストを特定のURLにリンクしたい場合はマークダウン構文を使用する</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウブン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebPlatform Docs</t>
+  </si>
+  <si>
+    <t>WebPlatform.orgのドキュメントにトークンをリンクさせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと何言ってるか分かりません……トークンてなんぞや？</t>
+    <rPh sb="4" eb="5">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理解出来た物は説明付き(グーグル翻訳様使用)</t>
+    <rPh sb="0" eb="2">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用の際は特別なセットアップは必要ない。ダウンロードするだけでOK</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Custom Class</t>
+  </si>
+  <si>
+    <t>prism.jsに使用するクラス名に接頭辞を付ける(「.comment」は「.namespace--comment」)ことが出来る？</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>セットウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よく分かりませんでした</t>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prism.jsに使われているクラス名は一般的な名前が多いので他の用途で使用しているクラス名と被らないようにする為のプラグイン？</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File Highlight</t>
+  </si>
+  <si>
+    <t>外部ファイルを取得して、prism.jsでハイライト表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空の&lt;pre&gt;&lt;/pre&gt;要素に「data-src」属性でファイルを指定する</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：&lt;pre data-src="myfile.js"&gt;&lt;/pre&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意点は「ファイルはXMLHttpRequestで取得される」ので他のサイトから持ってくる場合、そのサイトで*1CORSが有効にされていないと持ってこれない</t>
+    <rPh sb="0" eb="3">
+      <t>チュウイテン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*1CORSとは：Cross-Origin Resource Sharingの略。読み込み元のページがあるサーバーから別のサーバーにあるファイルを読み込む仕組みのこと。つまり他所様のサイトから持ってくることは出来ないと言うこと</t>
+    <rPh sb="39" eb="40">
+      <t>リャク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このプラグインは「ツールバープラグイン」との組み合わせることで、表示したコードにダウンロードボタンを付けることが出来る</t>
+    <rPh sb="22" eb="23">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Show Language</t>
+  </si>
+  <si>
+    <t>現在表示しているコードが何の言語かを示すことが出来る</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列で指定出来るのでhtml,css,javascriptなどだけでなく、基本的に何でも表示出来る</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSONP Highlight</t>
+  </si>
+  <si>
+    <t>JSONPでコンテンツを取得してハイライト表示する(GitHub、GitHub Gists、Bitbucketなど)</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳しいことは分かりませんでした</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Highlight Keywords</t>
+  </si>
+  <si>
+    <t>コード内で自分で決めたキーワードにクラス名を自動で付与する</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これにより特定のキーワードをcssで装飾が出来る</t>
+    <rPh sb="5" eb="7">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウショク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードの最初の改行を削除する</t>
+    <rPh sb="4" eb="6">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Remove initial line feed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※廃止予定</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>ハイシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このプラグインは廃止される予定なので、変わりに「Normalize Whitespace」プラグインを使う</t>
+    <rPh sb="8" eb="10">
+      <t>ハイシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Previewers</t>
+  </si>
+  <si>
+    <t>コード内の値をホバーするとプレビューが表示される</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば、「#f00」と記述された箇所をホバーすると赤色が表示される</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サポートされている値は</t>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>angle 角度</t>
+  </si>
+  <si>
+    <t>color 色</t>
+  </si>
+  <si>
+    <t>gradient グラデーション</t>
+  </si>
+  <si>
+    <t>easing イージング、アニメーションの緩急</t>
+  </si>
+  <si>
+    <t>time 時間</t>
+  </si>
+  <si>
+    <t>サイトでExamplesを試してみると分かり易い</t>
+    <rPh sb="13" eb="14">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Autoloader</t>
+  </si>
+  <si>
+    <t>コードをハイライトするのに必要な言語を自動的に読み込む</t>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不完全な文法を自動的に処理して埋めてくれる？</t>
+    <rPh sb="0" eb="3">
+      <t>フカンゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用の際は追加で「文法ファイル」を落とす必要がある。ちょっと重い</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Keep markup</t>
+  </si>
+  <si>
+    <t>コード内の指定箇所を強調表示する。</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウチョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定した単語が四角で囲まれる</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Command Line</t>
+  </si>
+  <si>
+    <t>windowsのコマンドプロンプトやMacのターミナル風な表示が出来る</t>
+    <rPh sb="27" eb="28">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インラインコードではなくコードブロックで使用出来る</t>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unescaped markup</t>
+  </si>
+  <si>
+    <t>「&lt;」などをそのまま表示出来る。</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このプラグインを使わないと「&lt;」などは文字実態参照(「&amp;gt;」など)で記述する必要がある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用方法は2通り</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;pre&gt;&lt;code&gt;の代わりに&lt;script type="text/plain"&gt;を使う</t>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;pre&gt;&lt;code&gt;の中を&lt;!----&gt;で記述する</t>
+    <rPh sb="12" eb="13">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Normalize Whitespace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空白に対する処理を指定出来る</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>シテイデキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行の先頭や末尾の空白、タブなどを削除</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブをスペースへ、スペースをタブへ変換</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデントの指定</t>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長い行を特定の文字数で改行</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>など色々出来る</t>
+    <rPh sb="2" eb="4">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data-URI Highlight</t>
+  </si>
+  <si>
+    <t>URIを自動でハイライトする</t>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIMEタイプ情報にて文法が推測される</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toolbar</t>
+  </si>
+  <si>
+    <t>コードの右上にツールバーを付けてボタンを表示できる</t>
+    <rPh sb="4" eb="6">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsにて機能を制作する</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンは自分で登録出来る(コードを選択ボタンなど)</t>
+    <rPh sb="4" eb="6">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copy to Clipboard</t>
+  </si>
+  <si>
+    <t>コードをコピーボタンを追加する</t>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラグインを落とす他、Clipboard.jsをプラグインより前に読み込む必要がある</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このサイトで使用しているものには✔付き</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半分くらい分かりませんでした……</t>
+    <rPh sb="0" eb="2">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +1464,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -529,7 +1506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +1520,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1011,73 +1991,569 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.7">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.7">
       <c r="D33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.7">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.7">
       <c r="D34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.7">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.7">
       <c r="D35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.7">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.7">
       <c r="D36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.7">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.7">
       <c r="D37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.7">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.7">
       <c r="D38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="C39" s="3" t="s">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="D39" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.7">
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D49" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D50" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D51" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D52" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="D77" t="s">
+        <v>116</v>
+      </c>
+      <c r="E77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="E83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="E86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="E89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="G93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="G94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="G95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="G96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F107" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="D108" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="D111" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F118" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G121" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G122" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="D127" t="s">
+        <v>116</v>
+      </c>
+      <c r="E127" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F128" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="F129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="F130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D131" t="s">
+        <v>116</v>
+      </c>
+      <c r="E131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="F132" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="F133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="C136" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="C40" t="s">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="C137" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="C41" t="s">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="C138" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="D42" t="s">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D139" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="D43" t="s">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D140" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="D44" t="s">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D141" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="D45" t="s">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D142" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="C46" s="3" t="s">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="C143" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/excel/js.xlsx
+++ b/excel/js.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="154">
   <si>
     <t>サイトURL</t>
     <phoneticPr fontId="1"/>
@@ -1415,6 +1415,126 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compression levelについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Themesについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧縮度</t>
+    <rPh sb="0" eb="2">
+      <t>アッシュク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Development version</t>
+  </si>
+  <si>
+    <t>Minified version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード表示の際のカラー</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>DARK</t>
+  </si>
+  <si>
+    <t>FUNKY</t>
+  </si>
+  <si>
+    <t>OKAIDIA</t>
+  </si>
+  <si>
+    <t>TWILIGHT</t>
+  </si>
+  <si>
+    <t>COY</t>
+  </si>
+  <si>
+    <t>SOLARIZED LIGHT</t>
+  </si>
+  <si>
+    <t>TOMORROW NIGHT</t>
+  </si>
+  <si>
+    <t>の全8種類</t>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像で表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このサイトではcssを上書きする形でカスタムするので、一番軽い「Tomorrow Night(1.71KB)」を使用</t>
+    <rPh sb="11" eb="13">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とあるが、落としたファイルの中身を調べたり、直接イジらない限りは「Minified version」を選んだ方が軽くて良い</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>エラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1840,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1991,569 +2111,657 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.7">
+    <row r="33" spans="4:15" x14ac:dyDescent="0.7">
       <c r="D33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.7">
+    <row r="34" spans="4:15" x14ac:dyDescent="0.7">
       <c r="D34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.7">
+    <row r="35" spans="4:15" x14ac:dyDescent="0.7">
       <c r="D35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.7">
+    <row r="36" spans="4:15" x14ac:dyDescent="0.7">
       <c r="D36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.7">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.7">
       <c r="D37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.7">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.7">
       <c r="D38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.7">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.7">
       <c r="D39" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.7">
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.7">
+      <c r="F41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.7">
+      <c r="F42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.7">
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.7">
+      <c r="D44" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.7">
+      <c r="E45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.7">
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.7">
+      <c r="F47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.7">
+      <c r="F48" t="s">
+        <v>144</v>
+      </c>
+      <c r="O48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D56" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="D40" t="s">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E41" t="s">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E58" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.7">
-      <c r="E48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="D49" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="D50" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="D51" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="D52" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="D53" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="D55" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="E57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F58" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.7">
       <c r="E59" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F60" t="s">
-        <v>60</v>
+      <c r="E60" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F61" t="s">
-        <v>61</v>
+      <c r="E61" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.7">
       <c r="E62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D66" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D67" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D68" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D69" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="D72" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="E79" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F63" t="s">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.7">
+      <c r="F80" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.7">
-      <c r="F64" t="s">
+    <row r="81" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F81" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F65" t="s">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F82" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="E66" t="s">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E83" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F67" t="s">
+    <row r="84" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F84" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F68" t="s">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F69" t="s">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="E70" t="s">
+    <row r="87" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E87" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F71" t="s">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F88" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F72" t="s">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F89" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F73" t="s">
+    <row r="90" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F90" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F74" t="s">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F91" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F75" t="s">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F92" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="G76" t="s">
+    <row r="93" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G93" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="D77" t="s">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="D94" t="s">
         <v>116</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E94" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F78" t="s">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F95" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F79" t="s">
+    <row r="96" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F96" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="E80" t="s">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="E97" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="F81" t="s">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F98" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="F82" t="s">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F99" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="E83" t="s">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="E100" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="F84" t="s">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F101" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="F85" t="s">
+    <row r="102" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F102" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="E86" t="s">
+    <row r="103" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="E103" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="F87" t="s">
+    <row r="104" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F104" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="F88" t="s">
+    <row r="105" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F105" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="E89" t="s">
+    <row r="106" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="E106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="F90" t="s">
+    <row r="107" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F107" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="F91" t="s">
+    <row r="108" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F108" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="F92" t="s">
+    <row r="109" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="F109" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="G93" t="s">
+    <row r="110" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="G110" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="G94" t="s">
+    <row r="111" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="G111" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="G95" t="s">
+    <row r="112" spans="5:7" x14ac:dyDescent="0.7">
+      <c r="G112" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.7">
-      <c r="G96" t="s">
+    <row r="113" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G113" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="G97" t="s">
+    <row r="114" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G114" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F98" t="s">
+    <row r="115" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F115" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="E99" t="s">
+    <row r="116" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E116" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F100" t="s">
+    <row r="117" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F117" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F102" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F103" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="E104" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F105" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F107" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="108" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="D108" t="s">
-        <v>116</v>
-      </c>
-      <c r="E108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="D111" t="s">
-        <v>116</v>
-      </c>
-      <c r="E111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="G115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="G116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="E117" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.7">
       <c r="F118" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="G119" t="s">
-        <v>119</v>
+      <c r="F119" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="G120" t="s">
-        <v>120</v>
+      <c r="F120" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="G121" t="s">
-        <v>121</v>
+      <c r="E121" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="G122" t="s">
-        <v>122</v>
+      <c r="F122" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.7">
       <c r="F123" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="E124" t="s">
-        <v>124</v>
+      <c r="F124" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F125" t="s">
-        <v>125</v>
+      <c r="D125" t="s">
+        <v>116</v>
+      </c>
+      <c r="E125" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.7">
       <c r="F126" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F127" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="D128" t="s">
+        <v>116</v>
+      </c>
+      <c r="E128" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F129" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F130" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F131" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G132" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G133" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E134" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F135" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G136" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="137" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G137" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G138" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="G139" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F140" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="E141" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F142" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="F143" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="D127" t="s">
+    <row r="144" spans="4:7" x14ac:dyDescent="0.7">
+      <c r="D144" t="s">
         <v>116</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E144" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="4:7" x14ac:dyDescent="0.7">
-      <c r="F128" t="s">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="F145" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="F129" t="s">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="F146" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="F130" t="s">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="F147" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="D131" t="s">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D148" t="s">
         <v>116</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E148" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="F132" t="s">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="F149" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="F133" t="s">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="F150" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="C136" s="3" t="s">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="C153" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="C137" t="s">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="C154" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="C138" t="s">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="C155" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="D139" t="s">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D156" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="D140" t="s">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D157" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="D141" t="s">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D158" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="D142" t="s">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="D159" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.7">
-      <c r="C143" s="3" t="s">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.7">
+      <c r="C160" s="3" t="s">
         <v>40</v>
       </c>
     </row>
